--- a/Gestion/Factures/Alexandre Tremblay/facture Alexandre Tremblay.xlsx
+++ b/Gestion/Factures/Alexandre Tremblay/facture Alexandre Tremblay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\Gestion\Factures\Alexandre Tremblay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC7A0DF-D55A-4542-8CA1-B3FDDA1A3098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513E04D6-B571-4E72-9BFF-778D95022B37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esp8266 </t>
+  </si>
+  <si>
+    <t>Best Buy</t>
+  </si>
+  <si>
+    <t>facture</t>
+  </si>
+  <si>
+    <t>faxture 1</t>
+  </si>
+  <si>
+    <t>Télécommande logithec #2</t>
   </si>
 </sst>
 </file>
@@ -343,9 +358,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,6 +374,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,7 +664,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,6 +674,7 @@
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -678,8 +694,11 @@
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F1" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -692,7 +711,10 @@
       <c r="D2" s="10">
         <v>277.2</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -711,7 +733,7 @@
       <c r="D3" s="10">
         <v>30.11</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="15"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6" t="s">
         <v>11</v>
@@ -730,7 +752,7 @@
       <c r="D4" s="10">
         <v>94.71</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="15"/>
       <c r="H4" s="7"/>
       <c r="I4" s="8" t="s">
         <v>12</v>
@@ -749,7 +771,7 @@
       <c r="D5" s="10">
         <v>28.98</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
@@ -764,103 +786,119 @@
       <c r="D6" s="10">
         <v>25.41</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="17"/>
+      <c r="A7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44260</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10">
+        <v>34.99</v>
+      </c>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="17"/>
+      <c r="A8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9">
+        <v>44260</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10">
+        <v>28.73</v>
+      </c>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="17"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="21" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="21">
-        <f>SUM(D2:D6)</f>
-        <v>456.41</v>
-      </c>
-      <c r="E19" s="20"/>
+      <c r="D19" s="20">
+        <f>SUM(D2:D8)</f>
+        <v>520.13</v>
+      </c>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>

--- a/Gestion/Factures/Alexandre Tremblay/facture Alexandre Tremblay.xlsx
+++ b/Gestion/Factures/Alexandre Tremblay/facture Alexandre Tremblay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\Gestion\Factures\Alexandre Tremblay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513E04D6-B571-4E72-9BFF-778D95022B37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B836D07-9D4B-4C2E-9C30-FB20DFF9B248}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>Télécommande logithec #2</t>
+  </si>
+  <si>
+    <t>goujon bois</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>JLCPCB</t>
   </si>
 </sst>
 </file>
@@ -664,7 +673,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,18 +828,28 @@
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44280</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10">
+        <v>31.96</v>
+      </c>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>

--- a/Gestion/Factures/Alexandre Tremblay/facture Alexandre Tremblay.xlsx
+++ b/Gestion/Factures/Alexandre Tremblay/facture Alexandre Tremblay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\Gestion\Factures\Alexandre Tremblay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B836D07-9D4B-4C2E-9C30-FB20DFF9B248}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DBD586-1839-4580-8959-8CB47FD3E4C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alexandre Tremblay" sheetId="1" r:id="rId1"/>
@@ -670,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,21 +893,21 @@
       <c r="D16" s="10"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="20" t="s">
@@ -919,24 +919,30 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f>SUM(D3:D8)</f>
+        <v>242.92999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gestion/Factures/Alexandre Tremblay/facture Alexandre Tremblay.xlsx
+++ b/Gestion/Factures/Alexandre Tremblay/facture Alexandre Tremblay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\Gestion\Factures\Alexandre Tremblay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DBD586-1839-4580-8959-8CB47FD3E4C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA0501-765F-4630-9281-FBA08B0C4F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,21 +893,21 @@
       <c r="D16" s="10"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="20" t="s">
@@ -919,30 +919,24 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I23">
-        <f>SUM(D3:D8)</f>
-        <v>242.92999999999998</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gestion/Factures/Alexandre Tremblay/facture Alexandre Tremblay.xlsx
+++ b/Gestion/Factures/Alexandre Tremblay/facture Alexandre Tremblay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\Gestion\Factures\Alexandre Tremblay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA0501-765F-4630-9281-FBA08B0C4F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD155D1-4BBC-4C58-B1F8-51F933330418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alexandre Tremblay" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>JLCPCB</t>
+  </si>
+  <si>
+    <t>facture 2</t>
+  </si>
+  <si>
+    <t>montant</t>
+  </si>
+  <si>
+    <t>canac</t>
   </si>
 </sst>
 </file>
@@ -188,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -331,11 +340,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,6 +404,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G3" sqref="G3:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,10 +708,12 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -706,8 +732,11 @@
       <c r="F1" s="21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -724,12 +753,16 @@
       <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
+      <c r="G2">
+        <f>D2</f>
+        <v>277.2</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -743,12 +776,19 @@
         <v>30.11</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6" t="s">
+      <c r="F3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="22">
+        <f>SUM(D3:D10)</f>
+        <v>274.89</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
@@ -762,12 +802,14 @@
         <v>94.71</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="22"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
@@ -781,8 +823,10 @@
         <v>28.98</v>
       </c>
       <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="23"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -796,8 +840,10 @@
         <v>25.41</v>
       </c>
       <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -811,8 +857,10 @@
         <v>34.99</v>
       </c>
       <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="23"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>22</v>
       </c>
@@ -826,17 +874,25 @@
         <v>28.73</v>
       </c>
       <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="23"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="9">
+        <v>44260</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="23"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>24</v>
       </c>
@@ -850,43 +906,45 @@
         <v>31.96</v>
       </c>
       <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -939,6 +997,10 @@
       <c r="E22" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="G3:G10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
